--- a/_CE_params/coeficientes_estaticos/bbce2_Coeficients_Tramos.xlsx
+++ b/_CE_params/coeficientes_estaticos/bbce2_Coeficients_Tramos.xlsx
@@ -66,68 +66,68 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="0">
-        <v>0.087670014622501041</v>
+        <v>0.099716796837399313</v>
       </c>
       <c r="C2" s="0">
-        <v>0.13492588305891368</v>
+        <v>0.129754326411325</v>
       </c>
       <c r="D2" s="0">
-        <v>0.13870987925025752</v>
+        <v>0.12541806225937388</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="0">
-        <v>0.063079886758821646</v>
+        <v>0.060790858033467329</v>
       </c>
       <c r="C3" s="0">
-        <v>0.096369827733089192</v>
+        <v>0.09921552141178655</v>
       </c>
       <c r="D3" s="0">
-        <v>0.10144117211868312</v>
+        <v>0.10102526719133365</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="0">
-        <v>0.46885604045561535</v>
+        <v>0.476478902044149</v>
       </c>
       <c r="C4" s="0">
-        <v>0.4238484213699828</v>
+        <v>0.4514355271780997</v>
       </c>
       <c r="D4" s="0">
-        <v>0.42052352846411944</v>
+        <v>0.44088017197540419</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="0">
-        <v>0.20368904035247865</v>
+        <v>0.19750239671636347</v>
       </c>
       <c r="C5" s="0">
-        <v>0.19359218758549696</v>
+        <v>0.17761753682143128</v>
       </c>
       <c r="D5" s="0">
-        <v>0.18112655698029373</v>
+        <v>0.1924101830288604</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="0">
-        <v>0.17648420978990456</v>
+        <v>0.16548831718725671</v>
       </c>
       <c r="C6" s="0">
-        <v>0.13399884121988137</v>
+        <v>0.14130474618816771</v>
       </c>
       <c r="D6" s="0">
-        <v>0.14081369700815619</v>
+        <v>0.13964615651130946</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="0">
-        <v>0.00022080802067869437</v>
+        <v>2.2729181364318714e-05</v>
       </c>
       <c r="C7" s="0">
-        <v>0.017264839032636169</v>
+        <v>0.0006723419891898506</v>
       </c>
       <c r="D7" s="0">
-        <v>0.017385166178490077</v>
+        <v>0.00062015903371850163</v>
       </c>
     </row>
   </sheetData>
